--- a/output.xlsx
+++ b/output.xlsx
@@ -14,15 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>hello2</t>
-  </si>
-  <si>
-    <t>hello3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>[p1]</t>
+  </si>
+  <si>
+    <t>[p2]</t>
+  </si>
+  <si>
+    <t>[p3]</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>[RCTotal]</t>
+  </si>
+  <si>
+    <t>[p4]</t>
+  </si>
+  <si>
+    <t>[p5]</t>
+  </si>
+  <si>
+    <t>[p6]</t>
+  </si>
+  <si>
+    <t>[p7]</t>
+  </si>
+  <si>
+    <t>[p8]</t>
+  </si>
+  <si>
+    <t>Hello there</t>
+  </si>
+  <si>
+    <t>my value</t>
+  </si>
+  <si>
+    <t>my value two</t>
   </si>
 </sst>
 </file>
@@ -38,15 +92,21 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -54,12 +114,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,37 +525,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="14.4" customHeight="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" ht="14.4" customHeight="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" ht="14.4" customHeight="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" ht="14.4" customHeight="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="14.4" customHeight="1" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="50" ht="14.4" customHeight="1" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" ht="14.4" customHeight="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="9">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B5:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:G51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
